--- a/biology/Histoire de la zoologie et de la botanique/Robert_Louis_August_Maximilian_Gürke/Robert_Louis_August_Maximilian_Gürke.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_Louis_August_Maximilian_Gürke/Robert_Louis_August_Maximilian_Gürke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert_Louis_August_Maximilian_G%C3%BCrke</t>
+          <t>Robert_Louis_August_Maximilian_Gürke</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Louis August Maximilian Gürke, né le 17 novembre 1854 à Beuthen-sur-l'Oder, arrondissement de Freystadt-en-Basse-Silésie (Province de Posnanie) et décédé le 16 mars 1911 à Berlin, est un botaniste et géographe prussien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert_Louis_August_Maximilian_G%C3%BCrke</t>
+          <t>Robert_Louis_August_Maximilian_Gürke</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Berlin les sciences naturelles. Après un premier poste à Görlitz, il entre en 1886 au musée botanique de Berlin. Il obtient son doctorat de l'université de Göttingen en 1892. La même année, il est nommé conservateur auxiliaire du musée, puis conservateur le 4 janvier 1893. 
-Le 4 avril 1906, il est reçu à l'Académie allemande des sciences Leopoldina (Halle) [1].
+Le 4 avril 1906, il est reçu à l'Académie allemande des sciences Leopoldina (Halle) .
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Robert_Louis_August_Maximilian_G%C3%BCrke</t>
+          <t>Robert_Louis_August_Maximilian_Gürke</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1905-1910 : premier président de la société allemande des cactus.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Robert_Louis_August_Maximilian_G%C3%BCrke</t>
+          <t>Robert_Louis_August_Maximilian_Gürke</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>avec W. Brandt, F.E. Köhler, G. Pabst, G. Schellenb. et Vogtherr. - Köhler's Medizinal-Pflanzen in naturgetreuen Abbildungen mit kurz erläuterndem Texte :Atlas zur Pharmacopoea germanica, austriaca, belgica, danica, helvetica, hungarica, rossica, suecica, Neerlandica, British pharmacopoeia, zum Codex medicamentarius, sowie zur Pharmacopoeia of the United States of America /herausgegeben von G. Pabst. 4 volumes. 1883-1914 Vol. 1 téléchargeable sur Biodiversity Heritage Library Vol. 2 en ligne Vol. 4 en ligne
 avec Karl Moritz Schumann - Blühende Kakteen (1900–1921) Malvaceae (1892) für die Flora Brasiliensis von Martius.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Robert_Louis_August_Maximilian_G%C3%BCrke</t>
+          <t>Robert_Louis_August_Maximilian_Gürke</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le genre Guerkea K.Schum., de la famille des Apocynacées, lui a été dédié ainsi que les plantes suivantes :
 Euclea guerkei Hiern (1906) - Ébénacée
